--- a/12 7/ExactModelData.xlsx
+++ b/12 7/ExactModelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\12 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7501A-4F6D-4B93-AE77-5B281EAD8675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACB9903-0DDF-43F5-81AA-561E558A1CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -417,40 +417,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.587151408059256</c:v>
+                  <c:v>97.293883538662328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.040752480274179</c:v>
+                  <c:v>-35.299554917021936</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-26.238206368155048</c:v>
+                  <c:v>71.610259704551225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.783870600012136</c:v>
+                  <c:v>84.213706156897572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2659412352264781</c:v>
+                  <c:v>-87.178223637745617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-11.80282169562642</c:v>
+                  <c:v>88.729777934952196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.526737694024774</c:v>
+                  <c:v>-86.406210574863607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-76.05334579098529</c:v>
+                  <c:v>-73.585353181893453</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.52273920762137</c:v>
+                  <c:v>-52.104134718245206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.856776261732918</c:v>
+                  <c:v>19.574662026656085</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.410200433774392</c:v>
+                  <c:v>16.950056350781807</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.705127356083878</c:v>
+                  <c:v>-14.6499793112053</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -468,40 +468,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.242682611047471</c:v>
+                  <c:v>50.315745054812282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.780814851765555</c:v>
+                  <c:v>28.845877874838521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1224402514632885</c:v>
+                  <c:v>39.572971296729349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.176957970669591</c:v>
+                  <c:v>94.294404759615716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.874455126478878</c:v>
+                  <c:v>-10.192240376998868</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.280418377744496</c:v>
+                  <c:v>99.631086986902915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-59.992133206937183</c:v>
+                  <c:v>50.218125158380317</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-44.668426127088637</c:v>
+                  <c:v>-29.092250317097466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5444467395137451</c:v>
+                  <c:v>-67.771686206874904</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.2937630139561094</c:v>
+                  <c:v>-45.422440576444842</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-48.188966740667567</c:v>
+                  <c:v>94.780176538555864</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-63.067691462269295</c:v>
+                  <c:v>24.356995742646518</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1570,36 +1570,36 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" customWidth="1"/>
-    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>11 metre</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.86054352148648494</v>
+        <v>0.94742931485754434</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>8.3713474109291006</v>
+        <v>9.5343039727179626</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L14" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>5.1367840534148335E-2</v>
+        <v>2.9728009174206455E-2</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1705,17 +1705,17 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.86054352148648494</v>
+        <v>1.0150952133694007</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>8.3713474109291006</v>
+        <v>7.1632649270856792</v>
       </c>
       <c r="U2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1725,11 +1725,11 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.371213619108955</v>
+        <v>1.4810394194140568</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>8.2471767702646179</v>
+        <v>12.526974773401927</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
@@ -1740,27 +1740,27 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H14" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>26.587151408059256</v>
+        <v>97.293883538662328</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>83.242682611047471</v>
+        <v>50.315745054812282</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I14" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L3">
         <f ca="1"/>
-        <v>1.7055275953681226E-2</v>
+        <v>0.11593582242090197</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1773,62 +1773,62 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>1.371213619108955</v>
+        <v>1.4810394194140568</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>8.2471767702646179</v>
+        <v>12.526974773401927</v>
       </c>
       <c r="U3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.86054352148648494</v>
+        <v>1.4810394194140568</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>8.3713474109291006</v>
+        <v>12.526974773401927</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>42.040752480274179</v>
+        <v>-35.299554917021936</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>97.780814851765555</v>
+        <v>28.845877874838521</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J13" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>8.6125123599456177E-2</v>
+        <v>8.5853626995028298E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1841,62 +1841,62 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>1.2063311851671488</v>
+        <v>0.94742931485754434</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>8.6427965660067567</v>
+        <v>9.5343039727179626</v>
       </c>
       <c r="U4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>11 metre</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.371213619108955</v>
+        <v>0.94742931485754434</v>
       </c>
       <c r="D5" s="8">
         <f ca="1"/>
-        <v>8.2471767702646179</v>
+        <v>9.5343039727179626</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>-26.238206368155048</v>
+        <v>71.610259704551225</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>-2.1224402514632885</v>
+        <v>39.572971296729349</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>0.15181317053532434</v>
+        <v>1.7804118554881981E-2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1907,52 +1907,52 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.86054352148648494</v>
+        <v>1.4810394194140568</v>
       </c>
       <c r="D6" s="8">
         <f ca="1"/>
-        <v>8.3713474109291006</v>
+        <v>12.526974773401927</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>70.783870600012136</v>
+        <v>84.213706156897572</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>81.176957970669591</v>
+        <v>94.294404759615716</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>6.8596189866899998E-2</v>
+        <v>4.6379447522435502E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1963,40 +1963,40 @@
       </c>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ref="B7:B8" ca="1" si="2">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7:E7" ca="1">_xlfn.XLOOKUP(B7,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.86054352148648494</v>
+        <v>1.4810394194140568</v>
       </c>
       <c r="D7" s="8">
         <f ca="1"/>
-        <v>8.3713474109291006</v>
+        <v>12.526974773401927</v>
       </c>
       <c r="E7" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>6.2659412352264781</v>
+        <v>-87.178223637745617</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>70.874455126478878</v>
+        <v>-10.192240376998868</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.1532124590441272</v>
+        <v>7.8270092049395945E-2</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -2018,52 +2018,52 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8:E8" ca="1">_xlfn.XLOOKUP(B8,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.371213619108955</v>
+        <v>1.0150952133694007</v>
       </c>
       <c r="D8" s="8">
         <f ca="1"/>
-        <v>8.2471767702646179</v>
+        <v>7.1632649270856792</v>
       </c>
       <c r="E8" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-11.80282169562642</v>
+        <v>88.729777934952196</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>96.280418377744496</v>
+        <v>99.631086986902915</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K13" ca="1" si="4">IF(J8=0,24,J8+1)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>0.10303766754656746</v>
+        <v>8.1723786637281942E-2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -2072,21 +2072,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>85.526737694024774</v>
+        <v>-86.406210574863607</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>-59.992133206937183</v>
+        <v>50.218125158380317</v>
       </c>
       <c r="I9">
         <f ca="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>0.11205417044106114</v>
+        <v>3.414504504142804E-2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -2107,33 +2107,33 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>-76.05334579098529</v>
+        <v>-73.585353181893453</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>-44.668426127088637</v>
+        <v>-29.092250317097466</v>
       </c>
       <c r="I10">
         <f ca="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>3.1747920036427096E-2</v>
+        <v>2.9564356107417922E-2</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2142,21 +2142,21 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>51.52273920762137</v>
+        <v>-52.104134718245206</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>1.5444467395137451</v>
+        <v>-67.771686206874904</v>
       </c>
       <c r="I11">
         <f ca="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>0.10071359785063713</v>
+        <v>4.9411438954835185E-2</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2177,21 +2177,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
         <f ca="1"/>
-        <v>37.856776261732918</v>
+        <v>19.574662026656085</v>
       </c>
       <c r="H12">
         <f ca="1"/>
-        <v>-9.2937630139561094</v>
+        <v>-45.422440576444842</v>
       </c>
       <c r="I12">
         <f ca="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="L12">
         <f ca="1"/>
-        <v>6.8498287079794662E-2</v>
+        <v>0.15242185977245595</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>22</v>
@@ -2212,21 +2212,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>11</v>
       </c>
       <c r="G13">
         <f ca="1"/>
-        <v>54.410200433774392</v>
+        <v>16.950056350781807</v>
       </c>
       <c r="H13">
         <f ca="1"/>
-        <v>-48.188966740667567</v>
+        <v>94.780176538555864</v>
       </c>
       <c r="I13">
         <f ca="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
@@ -2238,24 +2238,24 @@
       </c>
       <c r="L13">
         <f ca="1"/>
-        <v>8.0939140828355599E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0.13083040663570109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>12</v>
       </c>
       <c r="G14">
         <f ca="1"/>
-        <v>58.705127356083878</v>
+        <v>-14.6499793112053</v>
       </c>
       <c r="H14">
         <f ca="1"/>
-        <v>-63.067691462269295</v>
+        <v>24.356995742646518</v>
       </c>
       <c r="I14">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -2267,17 +2267,17 @@
       </c>
       <c r="L14">
         <f ca="1"/>
-        <v>1.8424177403569109E-2</v>
+        <v>6.6158516271482615E-2</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>11</v>
       </c>
@@ -2304,13 +2304,13 @@
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.43846153846153846</v>
+        <v>0.57926829268292679</v>
       </c>
     </row>
   </sheetData>
@@ -2332,70 +2332,70 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SQRT(('1D'!$G$2-'1D'!$G2)^2+('1D'!$H$2-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>87.385472638640863</v>
+        <v>109.53435065976177</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>106.43548572812986</v>
+        <v>45.586656465570556</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>26.323909778733928</v>
+        <v>81.817170277424282</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>107.70355074226254</v>
+        <v>126.425405174951</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>71.150898863180785</v>
+        <v>87.772002600688765</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>97.001162688765078</v>
+        <v>133.41411839298621</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>104.46951185538015</v>
+        <v>99.939448269091528</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>88.200791939043015</v>
+        <v>79.127512480910553</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>51.545882194291323</v>
+        <v>85.485918758940429</v>
       </c>
       <c r="K1">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
-        <v>38.9808868535656</v>
+        <v>49.460747076631129</v>
       </c>
       <c r="L1">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G2)^2+('1D'!$H$13-'1D'!$H2)^2)</f>
-        <v>72.681816342030615</v>
+        <v>96.283883775918042</v>
       </c>
       <c r="M1">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G2)^2+('1D'!$H$14-'1D'!$H2)^2)</f>
-        <v>86.161625357661535</v>
+        <v>28.423320274486652</v>
       </c>
       <c r="N1">
         <f>SQRT(('1D'!$G$15-'1D'!$G2)^2+('1D'!$H$15-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>87.385472638640863</v>
+        <v>109.53435065976177</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2403,61 +2403,61 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>21.217235332336983</v>
+        <v>134.32041958774192</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>100.38786094701193</v>
+        <v>27.839822579705412</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>44.244968139012151</v>
+        <v>45.882606178914159</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>23.789170519345149</v>
+        <v>194.14215056787748</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>40.543465426920775</v>
+        <v>50.053439988381577</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>154.88733742295645</v>
+        <v>183.70012005157338</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>164.00098598449446</v>
+        <v>188.42861585010112</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>85.418881305191718</v>
+        <v>190.43216451291775</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>93.220159907885716</v>
+        <v>123.31292543929587</v>
       </c>
       <c r="L2">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G3)^2+('1D'!$H$13-'1D'!$H3)^2)</f>
-        <v>134.34433560221109</v>
+        <v>91.827099673073292</v>
       </c>
       <c r="M2">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G3)^2+('1D'!$H$14-'1D'!$H3)^2)</f>
-        <v>149.7941585659193</v>
+        <v>114.91425105530575</v>
       </c>
       <c r="N2">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G3)^2+('1D'!$H$15-'1D'!$H3)^2)</f>
-        <v>87.385472638640863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>109.53435065976177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>106.43548572812986</v>
+        <v>45.586656465570556</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>21.217235332336983</v>
+        <v>134.32041958774192</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2465,61 +2465,61 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>121.00692790764631</v>
+        <v>107.44663324507248</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>33.194199833301091</v>
+        <v>136.26051975502753</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>44.763705312287549</v>
+        <v>64.925888094650148</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>53.864475024035691</v>
+        <v>142.8069369349559</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>163.65614577260658</v>
+        <v>55.395516122499117</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>185.03513801965713</v>
+        <v>69.445151358202438</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>96.702360983248113</v>
+        <v>98.068076311201708</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>107.15629184569524</v>
+        <v>92.341555167557573</v>
       </c>
       <c r="L3">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G4)^2+('1D'!$H$13-'1D'!$H4)^2)</f>
-        <v>146.4929362830064</v>
+        <v>84.127008849197068</v>
       </c>
       <c r="M3">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G4)^2+('1D'!$H$14-'1D'!$H4)^2)</f>
-        <v>161.70944120074634</v>
+        <v>21.131848842376527</v>
       </c>
       <c r="N3">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G4)^2+('1D'!$H$15-'1D'!$H4)^2)</f>
-        <v>106.43548572812986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>45.586656465570556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>26.323909778733928</v>
+        <v>81.817170277424282</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>100.38786094701193</v>
+        <v>27.839822579705412</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>121.00692790764631</v>
+        <v>107.44663324507248</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2527,61 +2527,61 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>127.87522497883016</v>
+        <v>56.15409284023972</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>79.906610153607744</v>
+        <v>166.40420287684401</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>99.456035096135466</v>
+        <v>62.450421653462861</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>125.85826982754455</v>
+        <v>158.37463237622183</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>65.511136685642441</v>
+        <v>160.61344483182674</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>77.84735523473779</v>
+        <v>163.79293904794963</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>64.494919710698824</v>
+        <v>99.659036043834405</v>
       </c>
       <c r="L4">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G5)^2+('1D'!$H$13-'1D'!$H5)^2)</f>
-        <v>92.877825030897768</v>
+        <v>77.688952504771109</v>
       </c>
       <c r="M4">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G5)^2+('1D'!$H$14-'1D'!$H5)^2)</f>
-        <v>104.54517487352382</v>
+        <v>87.591978782979268</v>
       </c>
       <c r="N4">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G5)^2+('1D'!$H$15-'1D'!$H5)^2)</f>
-        <v>26.323909778733928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>81.817170277424282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>107.70355074226254</v>
+        <v>126.425405174951</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>44.244968139012151</v>
+        <v>45.882606178914159</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>33.194199833301091</v>
+        <v>136.26051975502753</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>127.87522497883016</v>
+        <v>56.15409284023972</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2589,61 +2589,61 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>65.335325623846316</v>
+        <v>200.73029818798341</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>83.956394995274565</v>
+        <v>6.991071555890735</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>141.93683254907157</v>
+        <v>176.22109524412622</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>193.38621671714068</v>
+        <v>200.31178142891918</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>81.928798523444144</v>
+        <v>211.77339677593963</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>96.27639844240089</v>
+        <v>153.94480470847975</v>
       </c>
       <c r="L5">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G6)^2+('1D'!$H$13-'1D'!$H6)^2)</f>
-        <v>130.39800439858001</v>
+        <v>67.265403882389592</v>
       </c>
       <c r="M5">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G6)^2+('1D'!$H$14-'1D'!$H6)^2)</f>
-        <v>144.74949025258837</v>
+        <v>121.10024559984518</v>
       </c>
       <c r="N5">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G6)^2+('1D'!$H$15-'1D'!$H6)^2)</f>
-        <v>107.70355074226254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>126.425405174951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>71.150898863180785</v>
+        <v>87.772002600688765</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>23.789170519345149</v>
+        <v>194.14215056787748</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>44.763705312287549</v>
+        <v>64.925888094650148</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>79.906610153607744</v>
+        <v>166.40420287684401</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>65.335325623846316</v>
+        <v>200.73029818798341</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2651,61 +2651,61 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>31.176002992301992</v>
+        <v>207.37595870924622</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>152.99783592361968</v>
+        <v>60.415298296767432</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>141.86832777219811</v>
+        <v>23.280388806147645</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>82.793887610443932</v>
+        <v>67.420948492354</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>86.167999033773057</v>
+        <v>112.41594906315503</v>
       </c>
       <c r="L6">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G7)^2+('1D'!$H$13-'1D'!$H7)^2)</f>
-        <v>128.428844581313</v>
+        <v>147.85772555555627</v>
       </c>
       <c r="M6">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G7)^2+('1D'!$H$14-'1D'!$H7)^2)</f>
-        <v>143.84146437595675</v>
+        <v>80.336765814546808</v>
       </c>
       <c r="N6">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G7)^2+('1D'!$H$15-'1D'!$H7)^2)</f>
-        <v>71.150898863180785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87.772002600688765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>97.001162688765078</v>
+        <v>133.41411839298621</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>40.543465426920775</v>
+        <v>50.053439988381577</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>53.864475024035691</v>
+        <v>142.8069369349559</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>99.456035096135466</v>
+        <v>62.450421653462861</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>83.956394995274565</v>
+        <v>6.991071555890735</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>31.176002992301992</v>
+        <v>207.37595870924622</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2713,61 +2713,61 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>184.10364882253322</v>
+        <v>181.97322678893553</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>154.90224857559659</v>
+        <v>207.16152962400679</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>113.95188013346075</v>
+        <v>218.76443821191745</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>116.67040518406658</v>
+        <v>160.69522679551113</v>
       </c>
       <c r="L7">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G8)^2+('1D'!$H$13-'1D'!$H8)^2)</f>
-        <v>158.92000357412712</v>
+        <v>71.943448366608749</v>
       </c>
       <c r="M7">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G8)^2+('1D'!$H$14-'1D'!$H8)^2)</f>
-        <v>174.25036869132782</v>
+        <v>127.88105028081014</v>
       </c>
       <c r="N7">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G8)^2+('1D'!$H$15-'1D'!$H8)^2)</f>
-        <v>97.001162688765078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>133.41411839298621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>104.46951185538015</v>
+        <v>99.939448269091528</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>154.88733742295645</v>
+        <v>183.70012005157338</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>163.65614577260658</v>
+        <v>55.395516122499117</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>125.85826982754455</v>
+        <v>158.37463237622183</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>141.93683254907157</v>
+        <v>176.22109524412622</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>152.99783592361968</v>
+        <v>60.415298296767432</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>184.10364882253322</v>
+        <v>181.97322678893553</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2775,61 +2775,61 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>162.30508118260445</v>
+        <v>80.339965411693726</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>70.306632578792104</v>
+        <v>122.87484687307534</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>69.589869687913236</v>
+        <v>142.75525619554946</v>
       </c>
       <c r="L8">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G9)^2+('1D'!$H$13-'1D'!$H9)^2)</f>
-        <v>33.279928330737462</v>
+        <v>112.55351765278004</v>
       </c>
       <c r="M8">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G9)^2+('1D'!$H$14-'1D'!$H9)^2)</f>
-        <v>26.997367273537606</v>
+        <v>76.274207565997997</v>
       </c>
       <c r="N8">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G9)^2+('1D'!$H$15-'1D'!$H9)^2)</f>
-        <v>104.46951185538015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>99.939448269091528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>88.200791939043015</v>
+        <v>79.127512480910553</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>164.00098598449446</v>
+        <v>188.42861585010112</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>185.03513801965713</v>
+        <v>69.445151358202438</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>65.511136685642441</v>
+        <v>160.61344483182674</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>193.38621671714068</v>
+        <v>200.31178142891918</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>141.86832777219811</v>
+        <v>23.280388806147645</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>154.90224857559659</v>
+        <v>207.16152962400679</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>162.30508118260445</v>
+        <v>80.339965411693726</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -2837,61 +2837,61 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>135.68819802089075</v>
+        <v>44.244112686711048</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>119.27649683165907</v>
+        <v>94.580460707080846</v>
       </c>
       <c r="L9">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G10)^2+('1D'!$H$13-'1D'!$H10)^2)</f>
-        <v>130.51103822953775</v>
+        <v>153.43089165601043</v>
       </c>
       <c r="M9">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G10)^2+('1D'!$H$14-'1D'!$H10)^2)</f>
-        <v>136.00874622539442</v>
+        <v>79.562555248262669</v>
       </c>
       <c r="N9">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G10)^2+('1D'!$H$15-'1D'!$H10)^2)</f>
-        <v>88.200791939043015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79.127512480910553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>51.545882194291323</v>
+        <v>85.485918758940429</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>85.418881305191718</v>
+        <v>190.43216451291775</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>96.702360983248113</v>
+        <v>98.068076311201708</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>77.84735523473779</v>
+        <v>163.79293904794963</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>81.928798523444144</v>
+        <v>211.77339677593963</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>82.793887610443932</v>
+        <v>67.420948492354</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>113.95188013346075</v>
+        <v>218.76443821191745</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>70.306632578792104</v>
+        <v>122.87484687307534</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>135.68819802089075</v>
+        <v>44.244112686711048</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -2899,61 +2899,61 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>17.442056469883511</v>
+        <v>75.082212827314635</v>
       </c>
       <c r="L10">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G11)^2+('1D'!$H$13-'1D'!$H11)^2)</f>
-        <v>49.817164197926978</v>
+        <v>176.61140785976158</v>
       </c>
       <c r="M10">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G11)^2+('1D'!$H$14-'1D'!$H11)^2)</f>
-        <v>65.010115386157295</v>
+        <v>99.451032146533151</v>
       </c>
       <c r="N10">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G11)^2+('1D'!$H$15-'1D'!$H11)^2)</f>
-        <v>51.545882194291323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>85.485918758940429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
-        <v>38.9808868535656</v>
+        <v>49.460747076631129</v>
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>93.220159907885716</v>
+        <v>123.31292543929587</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>107.15629184569524</v>
+        <v>92.341555167557573</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>64.494919710698824</v>
+        <v>99.659036043834405</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>96.27639844240089</v>
+        <v>153.94480470847975</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>86.167999033773057</v>
+        <v>112.41594906315503</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>116.67040518406658</v>
+        <v>160.69522679551113</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>69.589869687913236</v>
+        <v>142.75525619554946</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>119.27649683165907</v>
+        <v>94.580460707080846</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>17.442056469883511</v>
+        <v>75.082212827314635</v>
       </c>
       <c r="K11">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -2961,61 +2961,61 @@
       </c>
       <c r="L11">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G12)^2+('1D'!$H$13-'1D'!$H12)^2)</f>
-        <v>42.271180782678826</v>
+        <v>140.22718139094616</v>
       </c>
       <c r="M11">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G12)^2+('1D'!$H$14-'1D'!$H12)^2)</f>
-        <v>57.673990013849668</v>
+        <v>77.720626655446992</v>
       </c>
       <c r="N11">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G12)^2+('1D'!$H$15-'1D'!$H12)^2)</f>
-        <v>38.9808868535656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>49.460747076631129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G13)^2+('1D'!$H$2-'1D'!$H13)^2)</f>
-        <v>72.681816342030615</v>
+        <v>96.283883775918042</v>
       </c>
       <c r="B12">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G13)^2+('1D'!$H$3-'1D'!$H13)^2)</f>
-        <v>134.34433560221109</v>
+        <v>91.827099673073292</v>
       </c>
       <c r="C12">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G13)^2+('1D'!$H$4-'1D'!$H13)^2)</f>
-        <v>146.4929362830064</v>
+        <v>84.127008849197068</v>
       </c>
       <c r="D12">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G13)^2+('1D'!$H$5-'1D'!$H13)^2)</f>
-        <v>92.877825030897768</v>
+        <v>77.688952504771109</v>
       </c>
       <c r="E12">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G13)^2+('1D'!$H$6-'1D'!$H13)^2)</f>
-        <v>130.39800439858001</v>
+        <v>67.265403882389592</v>
       </c>
       <c r="F12">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G13)^2+('1D'!$H$7-'1D'!$H13)^2)</f>
-        <v>128.428844581313</v>
+        <v>147.85772555555627</v>
       </c>
       <c r="G12">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G13)^2+('1D'!$H$8-'1D'!$H13)^2)</f>
-        <v>158.92000357412712</v>
+        <v>71.943448366608749</v>
       </c>
       <c r="H12">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G13)^2+('1D'!$H$9-'1D'!$H13)^2)</f>
-        <v>33.279928330737462</v>
+        <v>112.55351765278004</v>
       </c>
       <c r="I12">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G13)^2+('1D'!$H$10-'1D'!$H13)^2)</f>
-        <v>130.51103822953775</v>
+        <v>153.43089165601043</v>
       </c>
       <c r="J12">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G13)^2+('1D'!$H$11-'1D'!$H13)^2)</f>
-        <v>49.817164197926978</v>
+        <v>176.61140785976158</v>
       </c>
       <c r="K12">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G13)^2+('1D'!$H$12-'1D'!$H13)^2)</f>
-        <v>42.271180782678826</v>
+        <v>140.22718139094616</v>
       </c>
       <c r="L12">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G13)^2+('1D'!$H$13-'1D'!$H13)^2)</f>
@@ -3023,61 +3023,61 @@
       </c>
       <c r="M12">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G13)^2+('1D'!$H$14-'1D'!$H13)^2)</f>
-        <v>15.486214728240766</v>
+        <v>77.187995486682979</v>
       </c>
       <c r="N12">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G13)^2+('1D'!$H$15-'1D'!$H13)^2)</f>
-        <v>72.681816342030615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>96.283883775918042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G14)^2+('1D'!$H$2-'1D'!$H14)^2)</f>
-        <v>86.161625357661535</v>
+        <v>28.423320274486652</v>
       </c>
       <c r="B13">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G14)^2+('1D'!$H$3-'1D'!$H14)^2)</f>
-        <v>149.7941585659193</v>
+        <v>114.91425105530575</v>
       </c>
       <c r="C13">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G14)^2+('1D'!$H$4-'1D'!$H14)^2)</f>
-        <v>161.70944120074634</v>
+        <v>21.131848842376527</v>
       </c>
       <c r="D13">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G14)^2+('1D'!$H$5-'1D'!$H14)^2)</f>
-        <v>104.54517487352382</v>
+        <v>87.591978782979268</v>
       </c>
       <c r="E13">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G14)^2+('1D'!$H$6-'1D'!$H14)^2)</f>
-        <v>144.74949025258837</v>
+        <v>121.10024559984518</v>
       </c>
       <c r="F13">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G14)^2+('1D'!$H$7-'1D'!$H14)^2)</f>
-        <v>143.84146437595675</v>
+        <v>80.336765814546808</v>
       </c>
       <c r="G13">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G14)^2+('1D'!$H$8-'1D'!$H14)^2)</f>
-        <v>174.25036869132782</v>
+        <v>127.88105028081014</v>
       </c>
       <c r="H13">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G14)^2+('1D'!$H$9-'1D'!$H14)^2)</f>
-        <v>26.997367273537606</v>
+        <v>76.274207565997997</v>
       </c>
       <c r="I13">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G14)^2+('1D'!$H$10-'1D'!$H14)^2)</f>
-        <v>136.00874622539442</v>
+        <v>79.562555248262669</v>
       </c>
       <c r="J13">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G14)^2+('1D'!$H$11-'1D'!$H14)^2)</f>
-        <v>65.010115386157295</v>
+        <v>99.451032146533151</v>
       </c>
       <c r="K13">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G14)^2+('1D'!$H$12-'1D'!$H14)^2)</f>
-        <v>57.673990013849668</v>
+        <v>77.720626655446992</v>
       </c>
       <c r="L13">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G14)^2+('1D'!$H$13-'1D'!$H14)^2)</f>
-        <v>15.486214728240766</v>
+        <v>77.187995486682979</v>
       </c>
       <c r="M13">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G14)^2+('1D'!$H$14-'1D'!$H14)^2)</f>
@@ -3085,61 +3085,61 @@
       </c>
       <c r="N13">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G14)^2+('1D'!$H$15-'1D'!$H14)^2)</f>
-        <v>86.161625357661535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28.423320274486652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>SQRT(('1D'!$G$2-'1D'!$G15)^2+('1D'!$H$2-'1D'!$H15)^2)</f>
         <v>0</v>
       </c>
       <c r="B14">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G15)^2+('1D'!$H$3-'1D'!$H15)^2)</f>
-        <v>87.385472638640863</v>
+        <v>109.53435065976177</v>
       </c>
       <c r="C14">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G15)^2+('1D'!$H$4-'1D'!$H15)^2)</f>
-        <v>106.43548572812986</v>
+        <v>45.586656465570556</v>
       </c>
       <c r="D14">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G15)^2+('1D'!$H$5-'1D'!$H15)^2)</f>
-        <v>26.323909778733928</v>
+        <v>81.817170277424282</v>
       </c>
       <c r="E14">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G15)^2+('1D'!$H$6-'1D'!$H15)^2)</f>
-        <v>107.70355074226254</v>
+        <v>126.425405174951</v>
       </c>
       <c r="F14">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G15)^2+('1D'!$H$7-'1D'!$H15)^2)</f>
-        <v>71.150898863180785</v>
+        <v>87.772002600688765</v>
       </c>
       <c r="G14">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G15)^2+('1D'!$H$8-'1D'!$H15)^2)</f>
-        <v>97.001162688765078</v>
+        <v>133.41411839298621</v>
       </c>
       <c r="H14">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G15)^2+('1D'!$H$9-'1D'!$H15)^2)</f>
-        <v>104.46951185538015</v>
+        <v>99.939448269091528</v>
       </c>
       <c r="I14">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G15)^2+('1D'!$H$10-'1D'!$H15)^2)</f>
-        <v>88.200791939043015</v>
+        <v>79.127512480910553</v>
       </c>
       <c r="J14">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G15)^2+('1D'!$H$11-'1D'!$H15)^2)</f>
-        <v>51.545882194291323</v>
+        <v>85.485918758940429</v>
       </c>
       <c r="K14">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G15)^2+('1D'!$H$12-'1D'!$H15)^2)</f>
-        <v>38.9808868535656</v>
+        <v>49.460747076631129</v>
       </c>
       <c r="L14">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G15)^2+('1D'!$H$13-'1D'!$H15)^2)</f>
-        <v>72.681816342030615</v>
+        <v>96.283883775918042</v>
       </c>
       <c r="M14">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G15)^2+('1D'!$H$14-'1D'!$H15)^2)</f>
-        <v>86.161625357661535</v>
+        <v>28.423320274486652</v>
       </c>
       <c r="N14">
         <f>SQRT(('1D'!$G$15-'1D'!$G15)^2+('1D'!$H$15-'1D'!$H15)^2)</f>
@@ -3158,64 +3158,64 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>Distances!A1/80</f>
         <v>0</v>
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>1.0923184079830108</v>
+        <v>1.369179383247022</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>1.3304435716016232</v>
+        <v>0.56983320581963193</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>0.32904887223417412</v>
+        <v>1.0227146284678035</v>
       </c>
       <c r="E1">
+        <f ca="1">Distances!E1/80</f>
+        <v>1.5803175646868874</v>
+      </c>
+      <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.88938623578975984</v>
-      </c>
-      <c r="F1">
-        <f ca="1">Distances!G1/80</f>
-        <v>1.2125145336095635</v>
+        <v>1.0971500325086097</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>1.2125145336095635</v>
+        <v>1.6676764799123276</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>1.3058688981922519</v>
+        <v>1.2492431033636442</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>1.1025098992380378</v>
+        <v>0.98909390601138192</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>0.64432352742864152</v>
+        <v>1.0685739844867554</v>
       </c>
       <c r="K1">
         <f ca="1">Distances!K1/80</f>
-        <v>0.48726108566956999</v>
+        <v>0.61825933845788916</v>
       </c>
       <c r="L1">
         <f ca="1">Distances!L1/80</f>
-        <v>0.90852270427538273</v>
+        <v>1.2035485471989755</v>
       </c>
       <c r="M1">
         <f ca="1">Distances!M1/80</f>
-        <v>1.0770203169707693</v>
+        <v>0.35529150343108318</v>
       </c>
       <c r="N1">
         <f>Distances!N1/80</f>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>1.0923184079830108</v>
+        <v>1.369179383247022</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -3245,51 +3245,51 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>0.26521544165421229</v>
+        <v>1.679005244846774</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>1.2548482618376491</v>
+        <v>0.34799778224631767</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>0.55306210173765191</v>
+        <v>0.57353257723642703</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>0.29736463149181436</v>
+        <v>2.4267768820984683</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>0.50679331783650972</v>
+        <v>0.62566799985476973</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>1.9360917177869557</v>
+        <v>2.2962515006446673</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>2.0500123248061808</v>
+        <v>2.3553576981262641</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>1.0677360163148966</v>
+        <v>2.3804020564114721</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>1.1652519988485714</v>
+        <v>1.5414115679911984</v>
       </c>
       <c r="L2">
         <f ca="1">Distances!L2/80</f>
-        <v>1.6793041950276386</v>
+        <v>1.1478387459134161</v>
       </c>
       <c r="M2">
         <f ca="1">Distances!M2/80</f>
-        <v>1.8724269820739914</v>
+        <v>1.436428138191322</v>
       </c>
       <c r="N2">
         <f ca="1">Distances!N2/80</f>
-        <v>1.0923184079830108</v>
+        <v>1.369179383247022</v>
       </c>
       <c r="O2">
         <f>Distances!O2/80</f>
@@ -3304,14 +3304,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>1.3304435716016232</v>
+        <v>0.56983320581963193</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>0.26521544165421229</v>
+        <v>1.679005244846774</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -3319,47 +3319,47 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>1.5125865988455789</v>
+        <v>1.3430829155634059</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>0.41492749791626365</v>
+        <v>1.7032564969378441</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>0.55954631640359431</v>
+        <v>0.81157360118312682</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>0.67330593780044612</v>
+        <v>1.7850867116869487</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>2.0457018221575822</v>
+        <v>0.69244395153123894</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>2.3129392252457142</v>
+        <v>0.86806439197753049</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>1.2087795122906013</v>
+        <v>1.2258509538900213</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>1.3394536480711905</v>
+        <v>1.1542694395944697</v>
       </c>
       <c r="L3">
         <f ca="1">Distances!L3/80</f>
-        <v>1.83116170353758</v>
+        <v>1.0515876106149633</v>
       </c>
       <c r="M3">
         <f ca="1">Distances!M3/80</f>
-        <v>2.0213680150093292</v>
+        <v>0.2641481105297066</v>
       </c>
       <c r="N3">
         <f ca="1">Distances!N3/80</f>
-        <v>1.3304435716016232</v>
+        <v>0.56983320581963193</v>
       </c>
       <c r="O3">
         <f>Distances!O3/80</f>
@@ -3374,18 +3374,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>0.32904887223417412</v>
+        <v>1.0227146284678035</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>1.2548482618376491</v>
+        <v>0.34799778224631767</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>1.5125865988455789</v>
+        <v>1.3430829155634059</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -3393,43 +3393,43 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>1.598440312235377</v>
+        <v>0.7019261605029965</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>0.99883262692009678</v>
+        <v>2.08005253596055</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>1.2432004387016933</v>
+        <v>0.78063027066828572</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>1.5732283728443068</v>
+        <v>1.9796829047027729</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>0.81888920857053049</v>
+        <v>2.0076680603978341</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>0.97309194043422242</v>
+        <v>2.0474117380993704</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>0.8061864963837353</v>
+        <v>1.24573795054793</v>
       </c>
       <c r="L4">
         <f ca="1">Distances!L4/80</f>
-        <v>1.160972812886222</v>
+        <v>0.97111190630963884</v>
       </c>
       <c r="M4">
         <f ca="1">Distances!M4/80</f>
-        <v>1.3068146859190477</v>
+        <v>1.0948997347872409</v>
       </c>
       <c r="N4">
         <f ca="1">Distances!N4/80</f>
-        <v>0.32904887223417412</v>
+        <v>1.0227146284678035</v>
       </c>
       <c r="O4">
         <f>Distances!O4/80</f>
@@ -3444,22 +3444,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.3462943842782817</v>
+        <v>1.5803175646868874</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>0.55306210173765191</v>
+        <v>0.57353257723642703</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>0.41492749791626365</v>
+        <v>1.7032564969378441</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>1.598440312235377</v>
+        <v>0.7019261605029965</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -3467,39 +3467,39 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>0.81669157029807893</v>
+        <v>2.5091287273497924</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>1.0494549374409321</v>
+        <v>8.7388394448634193E-2</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>1.7742104068633946</v>
+        <v>2.2027636905515777</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>2.4173277089642586</v>
+        <v>2.5038972678614897</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>1.0241099815430519</v>
+        <v>2.6471674596992454</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>1.2034549805300112</v>
+        <v>1.9243100588559969</v>
       </c>
       <c r="L5">
         <f ca="1">Distances!L5/80</f>
-        <v>1.6299750549822503</v>
+        <v>0.8408175485298699</v>
       </c>
       <c r="M5">
         <f ca="1">Distances!M5/80</f>
-        <v>1.8093686281573547</v>
+        <v>1.5137530699980648</v>
       </c>
       <c r="N5">
         <f ca="1">Distances!N5/80</f>
-        <v>1.3462943842782817</v>
+        <v>1.5803175646868874</v>
       </c>
       <c r="O5">
         <f>Distances!O5/80</f>
@@ -3514,26 +3514,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.88938623578975984</v>
+        <v>1.0971500325086097</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>0.29736463149181436</v>
+        <v>2.4267768820984683</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>0.55954631640359431</v>
+        <v>0.81157360118312682</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>0.99883262692009678</v>
+        <v>2.08005253596055</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>0.81669157029807893</v>
+        <v>2.5091287273497924</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -3541,35 +3541,35 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>0.3897000374037749</v>
+        <v>2.5921994838655777</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>1.9124729490452459</v>
+        <v>0.75519122870959288</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>1.7733540971524764</v>
+        <v>0.29100486007684556</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>1.0349235951305491</v>
+        <v>0.842761856154425</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>1.0770999879221632</v>
+        <v>1.4051993632894377</v>
       </c>
       <c r="L6">
         <f ca="1">Distances!L6/80</f>
-        <v>1.6053605572664125</v>
+        <v>1.8482215694444535</v>
       </c>
       <c r="M6">
         <f ca="1">Distances!M6/80</f>
-        <v>1.7980183046994593</v>
+        <v>1.0042095726818352</v>
       </c>
       <c r="N6">
         <f ca="1">Distances!N6/80</f>
-        <v>0.88938623578975984</v>
+        <v>1.0971500325086097</v>
       </c>
       <c r="O6">
         <f>Distances!O6/80</f>
@@ -3584,30 +3584,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>1.2125145336095635</v>
+        <v>1.6676764799123276</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>0.50679331783650972</v>
+        <v>0.62566799985476973</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>0.67330593780044612</v>
+        <v>1.7850867116869487</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>1.2432004387016933</v>
+        <v>0.78063027066828572</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>1.0494549374409321</v>
+        <v>8.7388394448634193E-2</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>0.3897000374037749</v>
+        <v>2.5921994838655777</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -3615,31 +3615,31 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>2.3012956102816653</v>
+        <v>2.2746653348616941</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>1.9362781071949573</v>
+        <v>2.5895191203000847</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>1.4243985016682594</v>
+        <v>2.7345554776489682</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>1.4583800648008323</v>
+        <v>2.0086903349438892</v>
       </c>
       <c r="L7">
         <f ca="1">Distances!L7/80</f>
-        <v>1.986500044676589</v>
+        <v>0.89929310458260936</v>
       </c>
       <c r="M7">
         <f ca="1">Distances!M7/80</f>
-        <v>2.1781296086415978</v>
+        <v>1.5985131285101268</v>
       </c>
       <c r="N7">
         <f ca="1">Distances!N7/80</f>
-        <v>1.2125145336095635</v>
+        <v>1.6676764799123276</v>
       </c>
       <c r="O7">
         <f>Distances!O7/80</f>
@@ -3654,34 +3654,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>1.3058688981922519</v>
+        <v>1.2492431033636442</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>1.9360917177869557</v>
+        <v>2.2962515006446673</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>2.0457018221575822</v>
+        <v>0.69244395153123894</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>1.5732283728443068</v>
+        <v>1.9796829047027729</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>1.7742104068633946</v>
+        <v>2.2027636905515777</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>1.9124729490452459</v>
+        <v>0.75519122870959288</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>2.3012956102816653</v>
+        <v>2.2746653348616941</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -3689,27 +3689,27 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>2.0288135147825557</v>
+        <v>1.0042495676461716</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>0.87883290723490126</v>
+        <v>1.5359355859134418</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>0.86987337109891549</v>
+        <v>1.7844407024443683</v>
       </c>
       <c r="L8">
         <f ca="1">Distances!L8/80</f>
-        <v>0.41599910413421826</v>
+        <v>1.4069189706597505</v>
       </c>
       <c r="M8">
         <f ca="1">Distances!M8/80</f>
-        <v>0.33746709091922006</v>
+        <v>0.95342759457497495</v>
       </c>
       <c r="N8">
         <f ca="1">Distances!N8/80</f>
-        <v>1.3058688981922519</v>
+        <v>1.2492431033636442</v>
       </c>
       <c r="O8">
         <f>Distances!O8/80</f>
@@ -3724,38 +3724,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>1.1025098992380378</v>
+        <v>0.98909390601138192</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>2.0500123248061808</v>
+        <v>2.3553576981262641</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>2.3129392252457142</v>
+        <v>0.86806439197753049</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>0.81888920857053049</v>
+        <v>2.0076680603978341</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>2.4173277089642586</v>
+        <v>2.5038972678614897</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>1.7733540971524764</v>
+        <v>0.29100486007684556</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>1.9362781071949573</v>
+        <v>2.5895191203000847</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>2.0288135147825557</v>
+        <v>1.0042495676461716</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -3763,23 +3763,23 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>1.6961024752611344</v>
+        <v>0.55305140858388813</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>1.4909562103957383</v>
+        <v>1.1822557588385105</v>
       </c>
       <c r="L9">
         <f ca="1">Distances!L9/80</f>
-        <v>1.6313879778692217</v>
+        <v>1.9178861457001304</v>
       </c>
       <c r="M9">
         <f ca="1">Distances!M9/80</f>
-        <v>1.7001093278174302</v>
+        <v>0.99453194060328332</v>
       </c>
       <c r="N9">
         <f ca="1">Distances!N9/80</f>
-        <v>1.1025098992380378</v>
+        <v>0.98909390601138192</v>
       </c>
       <c r="O9">
         <f>Distances!O9/80</f>
@@ -3794,42 +3794,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>0.64432352742864152</v>
+        <v>1.0685739844867554</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>1.0677360163148966</v>
+        <v>2.3804020564114721</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>1.2087795122906013</v>
+        <v>1.2258509538900213</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>0.97309194043422242</v>
+        <v>2.0474117380993704</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>1.0241099815430519</v>
+        <v>2.6471674596992454</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>1.0349235951305491</v>
+        <v>0.842761856154425</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>1.4243985016682594</v>
+        <v>2.7345554776489682</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>0.87883290723490126</v>
+        <v>1.5359355859134418</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>1.6961024752611344</v>
+        <v>0.55305140858388813</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -3837,19 +3837,19 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>0.21802570587354389</v>
+        <v>0.93852766034143298</v>
       </c>
       <c r="L10">
         <f ca="1">Distances!L10/80</f>
-        <v>0.62271455247408725</v>
+        <v>2.2076425982470198</v>
       </c>
       <c r="M10">
         <f ca="1">Distances!M10/80</f>
-        <v>0.81262644232696624</v>
+        <v>1.2431379018316644</v>
       </c>
       <c r="N10">
         <f ca="1">Distances!N10/80</f>
-        <v>0.64432352742864152</v>
+        <v>1.0685739844867554</v>
       </c>
       <c r="O10">
         <f>Distances!O10/80</f>
@@ -3864,46 +3864,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">Distances!A11/80</f>
-        <v>0.48726108566956999</v>
+        <v>0.61825933845788916</v>
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>1.1652519988485714</v>
+        <v>1.5414115679911984</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>1.3394536480711905</v>
+        <v>1.1542694395944697</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>0.8061864963837353</v>
+        <v>1.24573795054793</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>1.2034549805300112</v>
+        <v>1.9243100588559969</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>1.0770999879221632</v>
+        <v>1.4051993632894377</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>1.4583800648008323</v>
+        <v>2.0086903349438892</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>0.86987337109891549</v>
+        <v>1.7844407024443683</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>1.4909562103957383</v>
+        <v>1.1822557588385105</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>0.21802570587354389</v>
+        <v>0.93852766034143298</v>
       </c>
       <c r="K11">
         <f ca="1">Distances!K11/80</f>
@@ -3911,15 +3911,15 @@
       </c>
       <c r="L11">
         <f ca="1">Distances!L11/80</f>
-        <v>0.52838975978348535</v>
+        <v>1.752839767386827</v>
       </c>
       <c r="M11">
         <f ca="1">Distances!M11/80</f>
-        <v>0.72092487517312087</v>
+        <v>0.97150783319308742</v>
       </c>
       <c r="N11">
         <f ca="1">Distances!N11/80</f>
-        <v>0.48726108566956999</v>
+        <v>0.61825933845788916</v>
       </c>
       <c r="O11">
         <f>Distances!O11/80</f>
@@ -3934,50 +3934,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">Distances!A12/80</f>
-        <v>0.90852270427538273</v>
+        <v>1.2035485471989755</v>
       </c>
       <c r="B12">
         <f ca="1">Distances!B12/80</f>
-        <v>1.6793041950276386</v>
+        <v>1.1478387459134161</v>
       </c>
       <c r="C12">
         <f ca="1">Distances!C12/80</f>
-        <v>1.83116170353758</v>
+        <v>1.0515876106149633</v>
       </c>
       <c r="D12">
         <f ca="1">Distances!D12/80</f>
-        <v>1.160972812886222</v>
+        <v>0.97111190630963884</v>
       </c>
       <c r="E12">
         <f ca="1">Distances!E12/80</f>
-        <v>1.6299750549822503</v>
+        <v>0.8408175485298699</v>
       </c>
       <c r="F12">
         <f ca="1">Distances!F12/80</f>
-        <v>1.6053605572664125</v>
+        <v>1.8482215694444535</v>
       </c>
       <c r="G12">
         <f ca="1">Distances!G12/80</f>
-        <v>1.986500044676589</v>
+        <v>0.89929310458260936</v>
       </c>
       <c r="H12">
         <f ca="1">Distances!H12/80</f>
-        <v>0.41599910413421826</v>
+        <v>1.4069189706597505</v>
       </c>
       <c r="I12">
         <f ca="1">Distances!I12/80</f>
-        <v>1.6313879778692217</v>
+        <v>1.9178861457001304</v>
       </c>
       <c r="J12">
         <f ca="1">Distances!J12/80</f>
-        <v>0.62271455247408725</v>
+        <v>2.2076425982470198</v>
       </c>
       <c r="K12">
         <f ca="1">Distances!K12/80</f>
-        <v>0.52838975978348535</v>
+        <v>1.752839767386827</v>
       </c>
       <c r="L12">
         <f ca="1">Distances!L12/80</f>
@@ -3985,11 +3985,11 @@
       </c>
       <c r="M12">
         <f ca="1">Distances!M12/80</f>
-        <v>0.19357768410300957</v>
+        <v>0.96484994358353726</v>
       </c>
       <c r="N12">
         <f ca="1">Distances!N12/80</f>
-        <v>0.90852270427538273</v>
+        <v>1.2035485471989755</v>
       </c>
       <c r="O12">
         <f>Distances!O12/80</f>
@@ -4004,54 +4004,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">Distances!A13/80</f>
-        <v>1.0770203169707693</v>
+        <v>0.35529150343108318</v>
       </c>
       <c r="B13">
         <f ca="1">Distances!B13/80</f>
-        <v>1.8724269820739914</v>
+        <v>1.436428138191322</v>
       </c>
       <c r="C13">
         <f ca="1">Distances!C13/80</f>
-        <v>2.0213680150093292</v>
+        <v>0.2641481105297066</v>
       </c>
       <c r="D13">
         <f ca="1">Distances!D13/80</f>
-        <v>1.3068146859190477</v>
+        <v>1.0948997347872409</v>
       </c>
       <c r="E13">
         <f ca="1">Distances!E13/80</f>
-        <v>1.8093686281573547</v>
+        <v>1.5137530699980648</v>
       </c>
       <c r="F13">
         <f ca="1">Distances!F13/80</f>
-        <v>1.7980183046994593</v>
+        <v>1.0042095726818352</v>
       </c>
       <c r="G13">
         <f ca="1">Distances!G13/80</f>
-        <v>2.1781296086415978</v>
+        <v>1.5985131285101268</v>
       </c>
       <c r="H13">
         <f ca="1">Distances!H13/80</f>
-        <v>0.33746709091922006</v>
+        <v>0.95342759457497495</v>
       </c>
       <c r="I13">
         <f ca="1">Distances!I13/80</f>
-        <v>1.7001093278174302</v>
+        <v>0.99453194060328332</v>
       </c>
       <c r="J13">
         <f ca="1">Distances!J13/80</f>
-        <v>0.81262644232696624</v>
+        <v>1.2431379018316644</v>
       </c>
       <c r="K13">
         <f ca="1">Distances!K13/80</f>
-        <v>0.72092487517312087</v>
+        <v>0.97150783319308742</v>
       </c>
       <c r="L13">
         <f ca="1">Distances!L13/80</f>
-        <v>0.19357768410300957</v>
+        <v>0.96484994358353726</v>
       </c>
       <c r="M13">
         <f ca="1">Distances!M13/80</f>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="N13">
         <f ca="1">Distances!N13/80</f>
-        <v>1.0770203169707693</v>
+        <v>0.35529150343108318</v>
       </c>
       <c r="O13">
         <f>Distances!O13/80</f>
@@ -4074,58 +4074,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>Distances!A14/80</f>
         <v>0</v>
       </c>
       <c r="B14">
         <f ca="1">Distances!B14/80</f>
-        <v>1.0923184079830108</v>
+        <v>1.369179383247022</v>
       </c>
       <c r="C14">
         <f ca="1">Distances!C14/80</f>
-        <v>1.3304435716016232</v>
+        <v>0.56983320581963193</v>
       </c>
       <c r="D14">
         <f ca="1">Distances!D14/80</f>
-        <v>0.32904887223417412</v>
+        <v>1.0227146284678035</v>
       </c>
       <c r="E14">
         <f ca="1">Distances!E14/80</f>
-        <v>1.3462943842782817</v>
+        <v>1.5803175646868874</v>
       </c>
       <c r="F14">
         <f ca="1">Distances!F14/80</f>
-        <v>0.88938623578975984</v>
+        <v>1.0971500325086097</v>
       </c>
       <c r="G14">
         <f ca="1">Distances!G14/80</f>
-        <v>1.2125145336095635</v>
+        <v>1.6676764799123276</v>
       </c>
       <c r="H14">
         <f ca="1">Distances!H14/80</f>
-        <v>1.3058688981922519</v>
+        <v>1.2492431033636442</v>
       </c>
       <c r="I14">
         <f ca="1">Distances!I14/80</f>
-        <v>1.1025098992380378</v>
+        <v>0.98909390601138192</v>
       </c>
       <c r="J14">
         <f ca="1">Distances!J14/80</f>
-        <v>0.64432352742864152</v>
+        <v>1.0685739844867554</v>
       </c>
       <c r="K14">
         <f ca="1">Distances!K14/80</f>
-        <v>0.48726108566956999</v>
+        <v>0.61825933845788916</v>
       </c>
       <c r="L14">
         <f ca="1">Distances!L14/80</f>
-        <v>0.90852270427538273</v>
+        <v>1.2035485471989755</v>
       </c>
       <c r="M14">
         <f ca="1">Distances!M14/80</f>
-        <v>1.0770203169707693</v>
+        <v>0.35529150343108318</v>
       </c>
       <c r="N14">
         <f>Distances!N14/80</f>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>Distances!A15/80</f>
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>Distances!A16/80</f>
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>Distances!A17/80</f>
         <v>0</v>
